--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,133 +40,118 @@
     <t>name</t>
   </si>
   <si>
-    <t>killed</t>
-  </si>
-  <si>
     <t>crude</t>
   </si>
   <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>warning</t>
-  </si>
-  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>emergency</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>sc</t>
+  </si>
+  <si>
     <t>low</t>
   </si>
   <si>
-    <t>sc</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>best</t>
+    <t>great</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>love</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>ensure</t>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>special</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>special</t>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>heroes</t>
   </si>
   <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>boost</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>energy</t>
+    <t>better</t>
+  </si>
+  <si>
+    <t>hand</t>
   </si>
   <si>
     <t>important</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>join</t>
+  </si>
+  <si>
+    <t>care</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>credit</t>
+    <t>hope</t>
   </si>
   <si>
     <t>help</t>
@@ -175,28 +160,25 @@
     <t>protect</t>
   </si>
   <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
-    <t>share</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
   <si>
     <t>19</t>
+  </si>
+  <si>
+    <t>corona</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -554,7 +536,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q42"/>
+  <dimension ref="A1:Q41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -562,10 +544,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -623,13 +605,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.8529411764705882</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -641,19 +623,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M3">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -673,13 +655,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.96</v>
+        <v>0.5958904109589042</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="D4">
-        <v>24</v>
+        <v>174</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -691,19 +673,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>118</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L4">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="M4">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -715,7 +697,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -723,13 +705,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7142857142857143</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C5">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>110</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -741,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -765,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -773,13 +755,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6666666666666666</v>
+        <v>0.2170542635658915</v>
       </c>
       <c r="C6">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -791,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>404</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="K6">
-        <v>0.925</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="M6">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -815,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -823,37 +805,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6470588235294118</v>
+        <v>0.2074468085106383</v>
       </c>
       <c r="C7">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="D7">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="K7">
-        <v>0.875</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -873,13 +855,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>0.1342281879194631</v>
       </c>
       <c r="C8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -891,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>12</v>
+        <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8518518518518519</v>
+        <v>0.875</v>
       </c>
       <c r="L8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="M8">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -915,7 +897,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -923,13 +905,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4074074074074074</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="D9">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -941,295 +923,175 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>16</v>
+        <v>230</v>
       </c>
       <c r="J9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>0.8414634146341463</v>
+      </c>
+      <c r="L9">
+        <v>69</v>
+      </c>
+      <c r="M9">
+        <v>69</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="J10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>0.8148148148148148</v>
+      </c>
+      <c r="L10">
+        <v>22</v>
+      </c>
+      <c r="M10">
+        <v>22</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="J11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11">
+        <v>0.796875</v>
+      </c>
+      <c r="L11">
+        <v>102</v>
+      </c>
+      <c r="M11">
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="J12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>0.7916666666666666</v>
+      </c>
+      <c r="L12">
+        <v>19</v>
+      </c>
+      <c r="M12">
+        <v>19</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="J13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>0.7833333333333333</v>
+      </c>
+      <c r="L13">
+        <v>94</v>
+      </c>
+      <c r="M13">
+        <v>94</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="J14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9">
-        <v>0.8431372549019608</v>
-      </c>
-      <c r="L9">
-        <v>43</v>
-      </c>
-      <c r="M9">
-        <v>43</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10">
-        <v>0.3928571428571428</v>
-      </c>
-      <c r="C10">
-        <v>11</v>
-      </c>
-      <c r="D10">
-        <v>11</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>17</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K10">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L10">
-        <v>10</v>
-      </c>
-      <c r="M10">
-        <v>10</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11">
-        <v>0.351931330472103</v>
-      </c>
-      <c r="C11">
-        <v>82</v>
-      </c>
-      <c r="D11">
-        <v>82</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>151</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11">
-        <v>0.8235294117647058</v>
-      </c>
-      <c r="L11">
-        <v>42</v>
-      </c>
-      <c r="M11">
-        <v>42</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12">
-        <v>0.225</v>
-      </c>
-      <c r="C12">
-        <v>18</v>
-      </c>
-      <c r="D12">
-        <v>18</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>62</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12">
-        <v>0.8214285714285714</v>
-      </c>
-      <c r="L12">
-        <v>46</v>
-      </c>
-      <c r="M12">
-        <v>46</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13">
-        <v>0.2093023255813954</v>
-      </c>
-      <c r="C13">
-        <v>18</v>
-      </c>
-      <c r="D13">
-        <v>18</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>68</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13">
-        <v>0.8148148148148148</v>
-      </c>
-      <c r="L13">
-        <v>44</v>
-      </c>
-      <c r="M13">
-        <v>44</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14">
-        <v>0.1090909090909091</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>98</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="K14">
-        <v>0.8125</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L14">
+        <v>45</v>
+      </c>
+      <c r="M14">
+        <v>45</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q14">
         <v>13</v>
-      </c>
-      <c r="M14">
-        <v>13</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="K15">
-        <v>0.7692307692307693</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="M15">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1241,21 +1103,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="K16">
-        <v>0.7692307692307693</v>
+        <v>0.7253521126760564</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1267,47 +1129,47 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K17">
-        <v>0.7692307692307693</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L17">
+        <v>26</v>
+      </c>
+      <c r="M17">
+        <v>26</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q17">
         <v>10</v>
-      </c>
-      <c r="M17">
-        <v>10</v>
-      </c>
-      <c r="N17">
-        <v>1</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>3</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="K18">
-        <v>0.7413793103448276</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L18">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="M18">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1319,21 +1181,21 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="K19">
-        <v>0.7241379310344828</v>
+        <v>0.7075471698113207</v>
       </c>
       <c r="L19">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="M19">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1345,21 +1207,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>8</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K20">
-        <v>0.72</v>
+        <v>0.6862745098039216</v>
       </c>
       <c r="L20">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1371,47 +1233,47 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="K21">
-        <v>0.7123287671232876</v>
+        <v>0.675</v>
       </c>
       <c r="L21">
+        <v>108</v>
+      </c>
+      <c r="M21">
+        <v>108</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q21">
         <v>52</v>
-      </c>
-      <c r="M21">
-        <v>52</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>21</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K22">
-        <v>0.7058823529411765</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L22">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1423,21 +1285,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="K23">
-        <v>0.6410256410256411</v>
+        <v>0.62</v>
       </c>
       <c r="L23">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="M23">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1449,21 +1311,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K24">
-        <v>0.64</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1475,21 +1337,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K25">
-        <v>0.5909090909090909</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L25">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M25">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1501,21 +1363,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="K26">
-        <v>0.5882352941176471</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L26">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="M26">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1527,21 +1389,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="K27">
-        <v>0.5833333333333334</v>
+        <v>0.5456919060052219</v>
       </c>
       <c r="L27">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="M27">
-        <v>14</v>
+        <v>209</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1553,21 +1415,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>10</v>
+        <v>174</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5757575757575758</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M28">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1579,21 +1441,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5625</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="L29">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="M29">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1605,47 +1467,47 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K30">
+        <v>0.4606741573033708</v>
+      </c>
+      <c r="L30">
+        <v>41</v>
+      </c>
+      <c r="M30">
+        <v>41</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>48</v>
-      </c>
-      <c r="K30">
-        <v>0.55</v>
-      </c>
-      <c r="L30">
-        <v>11</v>
-      </c>
-      <c r="M30">
-        <v>11</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>9</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5492957746478874</v>
+        <v>0.45</v>
       </c>
       <c r="L31">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="M31">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1657,21 +1519,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>96</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5263157894736842</v>
+        <v>0.4461538461538462</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="M32">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1683,21 +1545,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>9</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5116279069767442</v>
+        <v>0.4203389830508474</v>
       </c>
       <c r="L33">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="M33">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1709,21 +1571,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>63</v>
+        <v>171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5</v>
+        <v>0.3972602739726027</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1735,21 +1597,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>44</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="K35">
-        <v>0.4857142857142857</v>
+        <v>0.393305439330544</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1761,21 +1623,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>18</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="K36">
-        <v>0.4642857142857143</v>
+        <v>0.358974358974359</v>
       </c>
       <c r="L36">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="M36">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1787,21 +1649,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>15</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K37">
-        <v>0.44</v>
+        <v>0.3125</v>
       </c>
       <c r="L37">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1813,21 +1675,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="K38">
-        <v>0.4239130434782609</v>
+        <v>0.02684563758389262</v>
       </c>
       <c r="L38">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="M38">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1839,111 +1701,85 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>53</v>
+        <v>870</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="K39">
-        <v>0.3125</v>
+        <v>0.01168770453482936</v>
       </c>
       <c r="L39">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>22</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="K40">
-        <v>0.2702702702702703</v>
+        <v>0.009383797309978105</v>
       </c>
       <c r="L40">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="M40">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>27</v>
+        <v>3167</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="K41">
-        <v>0.2631578947368421</v>
+        <v>0.007409793814432989</v>
       </c>
       <c r="L41">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="M41">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="P41" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="42" spans="10:17">
-      <c r="J42" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K42">
-        <v>0.0124777183600713</v>
-      </c>
-      <c r="L42">
-        <v>14</v>
-      </c>
-      <c r="M42">
-        <v>15</v>
-      </c>
-      <c r="N42">
-        <v>0.93</v>
-      </c>
-      <c r="O42">
-        <v>0.06999999999999995</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>1108</v>
+        <v>3081</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/84/stop-words-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>anchor score</t>
   </si>
@@ -58,48 +58,48 @@
     <t>low</t>
   </si>
   <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>ensure</t>
-  </si>
-  <si>
     <t>free</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>healthy</t>
   </si>
   <si>
@@ -109,9 +109,6 @@
     <t>confidence</t>
   </si>
   <si>
-    <t>special</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
@@ -121,61 +118,58 @@
     <t>good</t>
   </si>
   <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
+    <t>like</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>join</t>
+    <t>help</t>
   </si>
   <si>
     <t>care</t>
   </si>
   <si>
-    <t>like</t>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
     <t>please</t>
   </si>
   <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>store</t>
+    <t>share</t>
+  </si>
+  <si>
+    <t>grocery</t>
   </si>
   <si>
     <t>19</t>
-  </si>
-  <si>
-    <t>corona</t>
   </si>
   <si>
     <t>co</t>
@@ -536,7 +530,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +538,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -605,13 +599,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8529411764705882</v>
+        <v>0.7941176470588235</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -623,19 +617,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -647,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -655,13 +649,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5958904109589042</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -673,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9545454545454546</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -697,7 +691,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -705,13 +699,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.5555555555555556</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="C5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -723,19 +717,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
-        <v>0.9130434782608695</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="L5">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="M5">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -747,7 +741,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -755,13 +749,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2170542635658915</v>
+        <v>0.1976744186046512</v>
       </c>
       <c r="C6">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D6">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -773,19 +767,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K6">
         <v>0.9090909090909091</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -797,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -805,37 +799,37 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.2074468085106383</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="C7">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D7">
+        <v>32</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>157</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7">
+        <v>0.8695652173913043</v>
+      </c>
+      <c r="L7">
         <v>40</v>
       </c>
-      <c r="E7">
-        <v>0.03</v>
-      </c>
-      <c r="F7">
-        <v>0.97</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>149</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8846153846153846</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
       <c r="M7">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -847,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,66 +870,42 @@
         <v>129</v>
       </c>
       <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L8">
+        <v>97</v>
+      </c>
+      <c r="M8">
+        <v>97</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>0.875</v>
-      </c>
-      <c r="L8">
-        <v>98</v>
-      </c>
-      <c r="M8">
-        <v>98</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.0873015873015873</v>
-      </c>
-      <c r="C9">
-        <v>22</v>
-      </c>
-      <c r="D9">
-        <v>22</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>230</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8414634146341463</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="M9">
-        <v>69</v>
+        <v>30</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -947,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K10">
-        <v>0.8148148148148148</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L10">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="M10">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -973,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K11">
-        <v>0.796875</v>
+        <v>0.8148148148148148</v>
       </c>
       <c r="L11">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="M11">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -999,12 +969,12 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K12">
         <v>0.7916666666666666</v>
@@ -1030,16 +1000,16 @@
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K13">
-        <v>0.7833333333333333</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L13">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="M13">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1051,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K14">
-        <v>0.7758620689655172</v>
+        <v>0.7734375</v>
       </c>
       <c r="L14">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M14">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1077,21 +1047,21 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15">
-        <v>0.7407407407407407</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="M15">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1103,21 +1073,21 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K16">
-        <v>0.7253521126760564</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L16">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="M16">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1129,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K17">
-        <v>0.7222222222222222</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1155,12 +1125,12 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K18">
         <v>0.7222222222222222</v>
@@ -1186,16 +1156,16 @@
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19">
-        <v>0.7075471698113207</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M19">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1207,12 +1177,12 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K20">
         <v>0.6862745098039216</v>
@@ -1238,16 +1208,16 @@
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K21">
-        <v>0.675</v>
+        <v>0.68125</v>
       </c>
       <c r="L21">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M21">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1259,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K22">
-        <v>0.6276595744680851</v>
+        <v>0.6785714285714286</v>
       </c>
       <c r="L22">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="M22">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1285,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K23">
-        <v>0.62</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M23">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1316,16 +1286,16 @@
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6170212765957447</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M24">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1337,47 +1307,47 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25">
+        <v>0.5957446808510638</v>
+      </c>
+      <c r="L25">
+        <v>56</v>
+      </c>
+      <c r="M25">
+        <v>56</v>
+      </c>
+      <c r="N25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>38</v>
-      </c>
-      <c r="K25">
-        <v>0.5833333333333334</v>
-      </c>
-      <c r="L25">
-        <v>28</v>
-      </c>
-      <c r="M25">
-        <v>28</v>
-      </c>
-      <c r="N25">
-        <v>1</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>20</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K26">
-        <v>0.5714285714285714</v>
+        <v>0.5957446808510638</v>
       </c>
       <c r="L26">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1389,21 +1359,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K27">
-        <v>0.5456919060052219</v>
+        <v>0.5873015873015873</v>
       </c>
       <c r="L27">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="M27">
-        <v>209</v>
+        <v>37</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1415,21 +1385,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>174</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K28">
-        <v>0.4666666666666667</v>
+        <v>0.5169712793733682</v>
       </c>
       <c r="L28">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="M28">
-        <v>21</v>
+        <v>198</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1441,21 +1411,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>24</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29" spans="10:17">
       <c r="J29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>0.4651162790697674</v>
+        <v>0.4852941176470588</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>165</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1467,21 +1437,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>23</v>
+        <v>175</v>
       </c>
     </row>
     <row r="30" spans="10:17">
       <c r="J30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>0.4606741573033708</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="L30">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="M30">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1493,21 +1463,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="10:17">
       <c r="J31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>0.45</v>
+        <v>0.4271186440677966</v>
       </c>
       <c r="L31">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="M31">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1519,21 +1489,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="10:17">
       <c r="J32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K32">
-        <v>0.4461538461538462</v>
+        <v>0.4269662921348314</v>
       </c>
       <c r="L32">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1545,38 +1515,38 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>36</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K33">
+        <v>0.4102564102564102</v>
+      </c>
+      <c r="L33">
+        <v>32</v>
+      </c>
+      <c r="M33">
+        <v>32</v>
+      </c>
+      <c r="N33">
+        <v>1</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q33">
         <v>46</v>
-      </c>
-      <c r="K33">
-        <v>0.4203389830508474</v>
-      </c>
-      <c r="L33">
-        <v>124</v>
-      </c>
-      <c r="M33">
-        <v>124</v>
-      </c>
-      <c r="N33">
-        <v>1</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q33">
-        <v>171</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K34">
         <v>0.3972602739726027</v>
@@ -1602,16 +1572,16 @@
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K35">
-        <v>0.393305439330544</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L35">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="M35">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1623,21 +1593,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>145</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K36">
-        <v>0.358974358974359</v>
+        <v>0.3556485355648535</v>
       </c>
       <c r="L36">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="M36">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1649,21 +1619,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K37">
-        <v>0.3125</v>
+        <v>0.2714285714285714</v>
       </c>
       <c r="L37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1675,21 +1645,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>44</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K38">
-        <v>0.02684563758389262</v>
+        <v>0.02219755826859045</v>
       </c>
       <c r="L38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1701,85 +1671,59 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>870</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K39">
-        <v>0.01168770453482936</v>
+        <v>0.01402524544179523</v>
       </c>
       <c r="L39">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="M39">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N39">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="O39">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
       <c r="P39" t="b">
         <v>1</v>
       </c>
       <c r="Q39">
-        <v>2114</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K40">
-        <v>0.009383797309978105</v>
+        <v>0.009339774557165861</v>
       </c>
       <c r="L40">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M40">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="N40">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>3167</v>
-      </c>
-    </row>
-    <row r="41" spans="10:17">
-      <c r="J41" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="K41">
-        <v>0.007409793814432989</v>
-      </c>
-      <c r="L41">
-        <v>23</v>
-      </c>
-      <c r="M41">
-        <v>26</v>
-      </c>
-      <c r="N41">
-        <v>0.88</v>
-      </c>
-      <c r="O41">
-        <v>0.12</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>3081</v>
+        <v>3076</v>
       </c>
     </row>
   </sheetData>
